--- a/Publication-release-404/ig/StructureDefinition-sdo-task.xlsx
+++ b/Publication-release-404/ig/StructureDefinition-sdo-task.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.3</t>
+    <t>4.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-16T14:02:22+00:00</t>
+    <t>2025-06-16T15:13:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Publication-release-404/ig/StructureDefinition-sdo-task.xlsx
+++ b/Publication-release-404/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-16T15:13:12+00:00</t>
+    <t>2025-06-17T09:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Publication-release-404/ig/StructureDefinition-sdo-task.xlsx
+++ b/Publication-release-404/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-17T09:11:00+00:00</t>
+    <t>2025-06-17T13:03:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
